--- a/data/trans_camb/IMC_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>17,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>8,95</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,71</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,89</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 18,96</t>
+          <t>-7,1; 18,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 25,7</t>
+          <t>0,17; 23,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 26,96</t>
+          <t>5,17; 29,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 14,13</t>
+          <t>-12,15; 17,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 9,94</t>
+          <t>-8,52; 20,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 16,41</t>
+          <t>-6,98; 13,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 13,43</t>
+          <t>-8,48; 12,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 15,99</t>
+          <t>-11,67; 10,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 18,33</t>
+          <t>-2,75; 21,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; 14,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 12,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 13,86</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 15,7</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 15,83</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 13,61</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>36,52%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 79,05</t>
+          <t>-19,21; 76,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 104,34</t>
+          <t>-1,12; 97,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 110,71</t>
+          <t>12,17; 116,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 72,76</t>
+          <t>-21,83; 44,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 49,99</t>
+          <t>-17,34; 57,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 79,02</t>
+          <t>-22,51; 69,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 57,21</t>
+          <t>-26,82; 60,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 66,65</t>
+          <t>-38,62; 53,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 75,79</t>
+          <t>-10,0; 106,78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-28,96; 60,25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 50,81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 58,7</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 65,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 51,43</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 41,3</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,93</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,89</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 12,36</t>
+          <t>-11,13; 14,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 8,11</t>
+          <t>-17,05; 10,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 3,03</t>
+          <t>-17,17; 13,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 13,45</t>
+          <t>-25,15; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 10,92</t>
+          <t>-14,11; 13,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 7,03</t>
+          <t>-8,0; 12,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 9,35</t>
+          <t>-8,48; 10,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 6,86</t>
+          <t>-10,84; 11,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 1,92</t>
+          <t>-4,75; 17,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 21,05</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 10,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,82; 6,85</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 8,81</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-10,88; 8,4</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 13,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-6,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>-18,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,97%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,08%</t>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-4,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 25,54</t>
+          <t>-18,44; 31,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 16,98</t>
+          <t>-28,09; 22,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,72; 7,04</t>
+          <t>-29,06; 27,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 41,16</t>
+          <t>-39,58; 14,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 34,31</t>
+          <t>-27,76; 36,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 21,03</t>
+          <t>-18,11; 39,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 22,01</t>
+          <t>-19,37; 34,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 16,03</t>
+          <t>-25,22; 34,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 4,46</t>
+          <t>-11,21; 56,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 76,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 24,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 16,13</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-20,67; 20,31</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-21,45; 21,54</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-9,48; 39,07</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>13,23</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-5,56</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10,9</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 11,78</t>
+          <t>-10,95; 9,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 15,81</t>
+          <t>-7,5; 11,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 10,42</t>
+          <t>-16,9; 4,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 4,47</t>
+          <t>-4,4; 16,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 7,67</t>
+          <t>-3,47; 16,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 14,68</t>
+          <t>-11,19; 5,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 4,67</t>
+          <t>-5,87; 9,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 9,12</t>
+          <t>-12,8; 3,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 8,6</t>
+          <t>3,39; 22,44</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 10,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; 4,17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 8,02</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 0,9</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 17,47</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 10,96</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,71%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>-6,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>-11,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>36,22%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-4,02%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-10,55%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 21,93</t>
+          <t>-15,71; 16,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 29,58</t>
+          <t>-10,6; 19,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 19,95</t>
+          <t>-24,87; 7,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 11,45</t>
+          <t>-6,91; 32,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 19,67</t>
+          <t>-6,35; 29,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 39,01</t>
+          <t>-24,3; 14,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 9,86</t>
+          <t>-12,47; 25,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 19,12</t>
+          <t>-28,05; 8,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 18,44</t>
+          <t>8,65; 68,2</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-16,46; 22,67</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-15,23; 8,66</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 16,41</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-21,21; 1,91</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 39,88</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 21,76</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,33</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 12,27</t>
+          <t>-4,87; 11,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 9,08</t>
+          <t>-7,87; 8,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 3,54</t>
+          <t>-15,7; 2,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 12,08</t>
+          <t>0,46; 18,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 10,7</t>
+          <t>0,22; 19,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 9,93</t>
+          <t>-5,87; 10,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 9,49</t>
+          <t>-6,38; 9,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 7,71</t>
+          <t>-5,54; 11,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 4,96</t>
+          <t>-6,49; 11,08</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,28; 13,59</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 8,74</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 7,27</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 4,94</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 12,31</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 13,74</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>-9,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-2,43%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 20,0</t>
+          <t>-6,77; 19,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 14,78</t>
+          <t>-10,96; 14,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 5,54</t>
+          <t>-22,27; 4,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 27,43</t>
+          <t>0,74; 33,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 24,63</t>
+          <t>0,28; 35,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 23,13</t>
+          <t>-11,32; 22,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 17,66</t>
+          <t>-11,84; 21,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 14,4</t>
+          <t>-10,26; 24,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 9,36</t>
+          <t>-11,94; 23,47</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 29,35</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 16,3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 13,38</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 8,89</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 23,02</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 26,42</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 11,6</t>
+          <t>-8,98; 10,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 13,71</t>
+          <t>-5,94; 13,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 17,51</t>
+          <t>-4,77; 14,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 6,39</t>
+          <t>-10,38; 8,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 8,47</t>
+          <t>-13,6; 5,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 5,74</t>
+          <t>-11,02; 7,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 5,35</t>
+          <t>-9,2; 10,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 7,99</t>
+          <t>-10,89; 9,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 9,08</t>
+          <t>-8,13; 13,12</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 15,36</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 6,38</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 8,23</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 9,29</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 8,08</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 7,7</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,6%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 18,95</t>
+          <t>-12,36; 16,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 22,0</t>
+          <t>-8,16; 21,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 28,58</t>
+          <t>-6,36; 23,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 11,54</t>
+          <t>-13,21; 11,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 15,45</t>
+          <t>-16,7; 8,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 10,55</t>
+          <t>-17,26; 14,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 8,92</t>
+          <t>-14,31; 19,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 13,17</t>
+          <t>-17,24; 17,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 15,34</t>
+          <t>-12,62; 25,41</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 29,84</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 10,66</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 13,78</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 15,15</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 13,14</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-7,68; 12,63</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-9,72</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-10,53</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>8,78</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-4,37</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-6,77</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 8,47</t>
+          <t>-17,53; 7,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 17,51</t>
+          <t>-4,89; 17,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 14,33</t>
+          <t>-14,59; 9,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 7,4</t>
+          <t>-10,58; 11,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 1,53</t>
+          <t>-13,7; 8,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 9,83</t>
+          <t>-13,09; 6,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 3,56</t>
+          <t>-19,19; 3,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 5,39</t>
+          <t>-22,33; 0,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 8,52</t>
+          <t>-3,0; 21,08</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 12,77</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-12,2; 3,5</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-9,42; 5,07</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-14,09; 2,35</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 13,2</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; 8,65</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-7,66%</t>
+          <t>-7,15%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-13,38%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>-14,54%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-3,45%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-9,18%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 11,64</t>
+          <t>-22,22; 10,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 27,66</t>
+          <t>-5,91; 27,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 21,82</t>
+          <t>-18,0; 14,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 11,02</t>
+          <t>-13,61; 17,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 2,05</t>
+          <t>-16,63; 12,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 14,27</t>
+          <t>-16,94; 9,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 5,24</t>
+          <t>-25,18; 4,94</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 7,62</t>
+          <t>-28,9; 1,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 12,18</t>
+          <t>-4,39; 38,53</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 20,99</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; 5,0</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 7,32</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-18,52; 2,82</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 21,04</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 12,8</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,58</t>
+          <t>-4,25; 4,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,85</t>
+          <t>-2,08; 6,91</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,31</t>
+          <t>-4,81; 5,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,58</t>
+          <t>-3,1; 7,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 2,93</t>
+          <t>-1,51; 8,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,95</t>
+          <t>-3,76; 3,87</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,93</t>
+          <t>-4,33; 3,37</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,99</t>
+          <t>-6,43; 1,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,08</t>
+          <t>2,99; 12,08</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 7,28</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 3,36</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 4,12</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 2,23</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 8,44</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 6,62</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>-0,27%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 9,84</t>
+          <t>-6,78; 8,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 14,02</t>
+          <t>-3,28; 12,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 9,38</t>
+          <t>-7,88; 10,28</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 7,67</t>
+          <t>-4,74; 13,09</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 6,26</t>
+          <t>-2,42; 15,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 12,95</t>
+          <t>-7,5; 8,61</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 5,55</t>
+          <t>-8,61; 7,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 7,6</t>
+          <t>-12,83; 3,91</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,87</t>
+          <t>6,28; 27,87</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 15,15</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 6,44</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 7,97</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 4,2</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 16,32</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 12,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
